--- a/blocks_order - test.xlsx
+++ b/blocks_order - test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p00688\Documents\PsychoPy\IAT 2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D02F5FD-F67F-43AB-9570-EC2540C079C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1209FA04-1284-4A75-878F-DB1327498C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{488BF5F3-4C3B-C94C-AA7B-951EEDC2D5EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{488BF5F3-4C3B-C94C-AA7B-951EEDC2D5EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
